--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1308 +397,1432 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>48.08055471433328</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4.272192245441247</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>18.65335179615009</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F2">
         <v>16.27631728774689</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>11.04394107343825</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>2.065555091419167</v>
       </c>
-      <c r="H2" t="n">
-        <v>100.3919122085289</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>105.71190500161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>49.6585501470207</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4.717212271008044</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>18.94481041796494</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F3">
         <v>15.70948036727809</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>8.770188499495079</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>1.906666238233077</v>
       </c>
-      <c r="H3" t="n">
-        <v>99.70690794099993</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>105.026900734081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>50.30262991546456</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.361196250554606</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>19.23626903977978</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>5.024437637909862</v>
+      </c>
+      <c r="F4">
         <v>14.65678322926461</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>8.770188499495079</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.747777385046988</v>
       </c>
-      <c r="H4" t="n">
-        <v>99.07484431960563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>104.0992819575155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>54.39253644508295</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.649164209647731</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20.11064490522432</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>8.57109949996388</v>
+      </c>
+      <c r="F5">
         <v>14.41385312049227</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>8.445366703217486</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.588888531860898</v>
       </c>
-      <c r="H5" t="n">
-        <v>102.6004539155257</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>111.1715534154896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>62.08928967798695</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.471156199421013</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>18.36189317433524</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>18.91552993095478</v>
+      </c>
+      <c r="F6">
         <v>12.14650543861708</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>4.222683351608743</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>1.429999678674808</v>
       </c>
-      <c r="H6" t="n">
-        <v>101.7215275206438</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>120.6370574515986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>66.27580817287199</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.33506007670039</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>12.53272073803834</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>19.80219539646828</v>
+      </c>
+      <c r="F7">
         <v>7.854740183639047</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>4.222683351608743</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>1.588888531860898</v>
       </c>
-      <c r="H7" t="n">
-        <v>93.8099010547194</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>113.6120964511877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>50.43144586915331</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.691076097153827</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>17.19605868707587</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>11.82220620684673</v>
+      </c>
+      <c r="F8">
         <v>5.830322610536201</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>3.897861555331148</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H8" t="n">
-        <v>79.36454252562253</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>91.18674873246925</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>40.15837356247396</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.780080102267187</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>10.78396900714927</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>22.46219179300879</v>
+      </c>
+      <c r="F9">
         <v>2.672231196495758</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>4.547505147886341</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H9" t="n">
-        <v>60.41882557583078</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>82.88101736883957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>33.26672004012476</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.8900400511335933</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9.035217276260202</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>11.2310958965044</v>
+      </c>
+      <c r="F10">
         <v>2.51027779064753</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>5.521970536719127</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H10" t="n">
-        <v>51.3831145480713</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>62.6142104445757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>23.63772750188922</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.780080102267187</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4.663337949037523</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F11">
         <v>2.753207899419872</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>3.897861555331148</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H11" t="n">
-        <v>37.36777042068931</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>42.68776321377034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>14.52399877840879</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.780080102267187</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2.623127596333607</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>2.659996396540516</v>
+      </c>
+      <c r="F12">
         <v>1.538557355558164</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>2.923396166498362</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H12" t="n">
-        <v>23.70693770543829</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>26.3669341019788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10.30527629510157</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2.670120153400779</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2.914586218148453</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>1.77333093102701</v>
+      </c>
+      <c r="F13">
         <v>1.619534058482278</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>3.573039759053552</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>21.08255648418663</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>22.85588741521364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>6.795041557082597</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.848128163627498</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.748751730889071</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F14">
         <v>1.781487464330505</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>5.197148740441532</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H14" t="n">
-        <v>18.52944650955729</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>19.41611197507079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5.184842135972979</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2.136096122720624</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.206044839963298</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="F15">
         <v>1.376603949709936</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>4.547505147886341</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H15" t="n">
-        <v>16.76886990262536</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>17.95109052331003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4.733986298062283</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.8010360460202338</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3.788962083592987</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F16">
         <v>1.295627246785822</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>3.897861555331148</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H16" t="n">
-        <v>14.67636208297856</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>15.56302754849207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>9.532380572968954</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.157052066473671</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>5.829172436296905</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F17">
         <v>2.996138008192214</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>5.846792332996723</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H17" t="n">
-        <v>25.83820197648674</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>26.72486744200024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>20.99700045126945</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.7120320409068744</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>9.326675898075045</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>14.18664744821608</v>
+      </c>
+      <c r="F18">
         <v>6.88301974854968</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>10.71911927716066</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H18" t="n">
-        <v>49.11451397551998</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>63.30116142373605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>36.9701787086769</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.24605607158703</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>17.19605868707587</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>29.25996036194566</v>
+      </c>
+      <c r="F19">
         <v>11.6606452210724</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>19.16448598037814</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>1.588888531860898</v>
       </c>
-      <c r="H19" t="n">
-        <v>87.82631320065124</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>117.0862735625969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>50.0772019965092</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.33506007670039</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>15.15584833437195</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>25.41774334472048</v>
+      </c>
+      <c r="F20">
         <v>11.33673840937595</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>16.56591161015737</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>1.588888531860898</v>
       </c>
-      <c r="H20" t="n">
-        <v>96.05964895897574</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>121.4773923036962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>39.70751772456325</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.424064081813749</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>7.577924167185975</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>10.63998558616207</v>
+      </c>
+      <c r="F21">
         <v>8.907437321652527</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>12.01840646227104</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H21" t="n">
-        <v>70.2709051702309</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>80.91089075639296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>47.01782309640093</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.450200255667966</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>23.60814836700246</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>10.93554074133323</v>
+      </c>
+      <c r="F22">
         <v>16.84315420821569</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>21.76306035059891</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H22" t="n">
-        <v>114.3179416906303</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>125.2534824319635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>42.25163280991644</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.628208265894683</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>19.23626903977978</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>6.797768568936874</v>
+      </c>
+      <c r="F23">
         <v>18.21975815792562</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>16.56591161015737</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H23" t="n">
-        <v>101.6962241496044</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>108.4939927185412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>44.34489205735897</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.628208265894683</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>17.19605868707587</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>6.502213413765702</v>
+      </c>
+      <c r="F24">
         <v>17.00510761406391</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>14.61698083249181</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.588888531860898</v>
       </c>
-      <c r="H24" t="n">
-        <v>99.38013598874613</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>105.8823494025118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>44.73133991842525</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.560160204534373</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>18.0704345525204</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>6.206658258594537</v>
+      </c>
+      <c r="F25">
         <v>13.4421326854029</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>13.64251544365902</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>1.112221972302628</v>
       </c>
-      <c r="H25" t="n">
-        <v>94.55880477684458</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>100.7654630354391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>46.01949945531293</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.82717221987445</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>16.03022419981649</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>3.54666186205402</v>
+      </c>
+      <c r="F26">
         <v>17.16706101991214</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>18.19002059154536</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.271110825488718</v>
       </c>
-      <c r="H26" t="n">
-        <v>102.5050883119501</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>106.0517501740041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>48.30598263328861</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.026136173854217</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>22.44231387974308</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>7.093323724108041</v>
+      </c>
+      <c r="F27">
         <v>14.41385312049227</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>7.146079518107104</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>1.112221972302628</v>
       </c>
-      <c r="H27" t="n">
-        <v>96.44658729778793</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>103.539911021896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>46.76019118902338</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.628208265894683</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>22.15085525792823</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>6.502213413765702</v>
+      </c>
+      <c r="F28">
         <v>13.60408609125114</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>14.61698083249181</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>2.542221650977436</v>
       </c>
-      <c r="H28" t="n">
-        <v>104.3025432875667</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>110.8047567013324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>51.42976951024128</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>4.005180230101169</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>21.56793801429854</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>8.57109949996388</v>
+      </c>
+      <c r="F29">
         <v>13.52310938832702</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>8.770188499495079</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>3.972221329652244</v>
       </c>
-      <c r="H29" t="n">
-        <v>103.2684069721153</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>111.8395064720792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>64.44018083280702</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.958088112493905</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>13.69855522529772</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>14.18664744821608</v>
+      </c>
+      <c r="F30">
         <v>11.74162192399652</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>6.821257721829508</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>2.065555091419167</v>
       </c>
-      <c r="H30" t="n">
-        <v>100.7252589078439</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>114.9119063560599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>67.04870389500458</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.581116148287419</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>17.19605868707587</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>20.68886086198179</v>
+      </c>
+      <c r="F31">
         <v>8.988414024576642</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>6.171614129274317</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H31" t="n">
-        <v>102.6214622969632</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>123.310323158945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>53.03996893135091</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.869084107380546</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>14.57293109074226</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>13.89109229304492</v>
+      </c>
+      <c r="F32">
         <v>6.316182828080882</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>4.872326944163936</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>1.429999678674808</v>
       </c>
-      <c r="H32" t="n">
-        <v>82.10049358039333</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>95.99158587343825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>44.40930003420333</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.670120153400779</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>11.36688625077896</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>18.91552993095478</v>
+      </c>
+      <c r="F33">
         <v>4.048835146205693</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>5.197148740441532</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H33" t="n">
-        <v>67.85117917821638</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>86.76670910917116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>36.487118882344</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.780080102267187</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>7.577924167185975</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>9.162209810306221</v>
+      </c>
+      <c r="F34">
         <v>2.591254493571644</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>2.598574370220766</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H34" t="n">
-        <v>51.67050742833393</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>60.83271723864016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>25.79539472617612</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.691076097153827</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>7.286465545371131</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>5.024437637909862</v>
+      </c>
+      <c r="F35">
         <v>1.943440870178733</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>4.222683351608743</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H35" t="n">
-        <v>41.09794944367464</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>46.12238708158451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>16.23081016478498</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.115140178967576</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.914586218148453</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>2.659996396540516</v>
+      </c>
+      <c r="F36">
         <v>1.619534058482278</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>2.923396166498362</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H36" t="n">
-        <v>26.96235564006773</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>29.62235203660825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>12.3341275656997</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>3.738168214761092</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.914586218148453</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="F37">
         <v>1.376603949709936</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>3.248217962775958</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H37" t="n">
-        <v>24.24725932383949</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>25.42947994452417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>6.923857510771366</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.581116148287419</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>2.331668974518761</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="F38">
         <v>1.619534058482278</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>3.248217962775958</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H38" t="n">
-        <v>17.02217236120796</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>17.6132826715503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>4.637374332795709</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.869084107380546</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>3.497503461778142</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="F39">
         <v>1.538557355558164</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>3.248217962775958</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H39" t="n">
-        <v>14.94962607347461</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>15.24518122864578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>4.669578321217902</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.9790440562469523</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>3.206044839963298</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F40">
         <v>1.700510761406392</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>4.222683351608743</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H40" t="n">
-        <v>15.09563903681547</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>15.98230450232897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>8.72728086241414</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.9790440562469523</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>4.080420705407833</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>1.477775775855842</v>
+      </c>
+      <c r="F41">
         <v>4.129811849129808</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>6.496435925551915</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H41" t="n">
-        <v>24.57188225193674</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>26.04965802779258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>22.67160784922344</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.9790440562469523</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>7.577924167185975</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>12.41331651718907</v>
+      </c>
+      <c r="F42">
         <v>8.178646995335502</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>12.01840646227104</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>1.271110825488718</v>
       </c>
-      <c r="H42" t="n">
-        <v>52.69674035575163</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>65.1100568729407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>33.74977986645764</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.4450200255667967</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>10.78396900714927</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>24.23552272403581</v>
+      </c>
+      <c r="F43">
         <v>9.960134459666005</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>24.03681292454208</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>1.429999678674808</v>
       </c>
-      <c r="H43" t="n">
-        <v>80.40571596205659</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>104.6412386860924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>54.03829257243886</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.513068086927108</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>13.69855522529772</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>27.1910742757475</v>
+      </c>
+      <c r="F44">
         <v>11.82259862692063</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>17.54037699899016</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>2.859999357349615</v>
       </c>
-      <c r="H44" t="n">
-        <v>101.4728908679241</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>128.6639651436716</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>54.84339228299365</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3.115140178967576</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>16.61314144344617</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>14.18664744821608</v>
+      </c>
+      <c r="F45">
         <v>13.52310938832702</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>19.81412957293334</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>1.271110825488718</v>
       </c>
-      <c r="H45" t="n">
-        <v>109.1800236921565</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>123.3666711403726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>47.08223107324533</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>4.806216276121401</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>25.64835871970638</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>13.0044268275314</v>
+      </c>
+      <c r="F46">
         <v>14.81873663511284</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>21.11341675804372</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>1.271110825488718</v>
       </c>
-      <c r="H46" t="n">
-        <v>114.7400702877184</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>127.7444971152498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>35.03793940334536</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3.649164209647731</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>14.86438971255711</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="F47">
         <v>13.11822587370645</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>14.29215903621421</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H47" t="n">
-        <v>81.75632250140131</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>87.3718704496535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>36.77695477814372</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>3.649164209647731</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>13.11563798166803</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="F48">
         <v>12.30845884446531</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>12.66805005482624</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>1.588888531860898</v>
       </c>
-      <c r="H48" t="n">
-        <v>80.10715440061193</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>85.72270234886413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>37.09899466236567</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.848128163627498</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>13.99001384711257</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F49">
         <v>9.717204350893667</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>11.69358466599345</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>1.112221972302628</v>
       </c>
-      <c r="H49" t="n">
-        <v>76.46014766229548</v>
+      <c r="I49">
+        <v>81.78014045537651</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>48.08055471433328</v>
+        <v>69.69589974677703</v>
       </c>
       <c r="C2">
-        <v>4.272192245441247</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="D2">
-        <v>18.65335179615009</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="E2">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F2">
-        <v>16.27631728774689</v>
+        <v>23.59358340754267</v>
       </c>
       <c r="G2">
-        <v>11.04394107343825</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="H2">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I2">
-        <v>105.71190500161</v>
+        <v>153.2363005545077</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>49.6585501470207</v>
+        <v>71.98330703920305</v>
       </c>
       <c r="C3">
-        <v>4.717212271008044</v>
+        <v>6.837906831104704</v>
       </c>
       <c r="D3">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E3">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F3">
-        <v>15.70948036727809</v>
+        <v>22.7719163236979</v>
       </c>
       <c r="G3">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H3">
-        <v>1.906666238233077</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="I3">
-        <v>105.026900734081</v>
+        <v>152.2433421945331</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>50.30262991546456</v>
+        <v>72.91694266876473</v>
       </c>
       <c r="C4">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D4">
-        <v>19.23626903977978</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="E4">
-        <v>5.024437637909862</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="F4">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G4">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H4">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I4">
-        <v>104.0992819575155</v>
+        <v>150.8986982810247</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>54.39253644508295</v>
+        <v>78.84552891648116</v>
       </c>
       <c r="C5">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D5">
-        <v>20.11064490522432</v>
+        <v>29.15169135392082</v>
       </c>
       <c r="E5">
-        <v>8.57109949996388</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="F5">
-        <v>14.41385312049227</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="G5">
-        <v>8.445366703217486</v>
+        <v>12.24210982109874</v>
       </c>
       <c r="H5">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I5">
-        <v>111.1715534154896</v>
+        <v>161.1504169944532</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>62.08928967798695</v>
+        <v>90.00247468974285</v>
       </c>
       <c r="C6">
-        <v>3.471156199421013</v>
+        <v>5.031667290812894</v>
       </c>
       <c r="D6">
-        <v>18.36189317433524</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="E6">
-        <v>18.91552993095478</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="F6">
-        <v>12.14650543861708</v>
+        <v>17.60715179667363</v>
       </c>
       <c r="G6">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H6">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I6">
-        <v>120.6370574515986</v>
+        <v>174.8712824102739</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>66.27580817287199</v>
+        <v>96.07110628189356</v>
       </c>
       <c r="C7">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D7">
-        <v>12.53272073803834</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="E7">
-        <v>19.80219539646828</v>
+        <v>28.70457367470663</v>
       </c>
       <c r="F7">
-        <v>7.854740183639047</v>
+        <v>11.38595816184895</v>
       </c>
       <c r="G7">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H7">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I7">
-        <v>113.6120964511877</v>
+        <v>164.6881432905477</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>50.43144586915331</v>
+        <v>73.10366979467703</v>
       </c>
       <c r="C8">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D8">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E8">
-        <v>11.82220620684673</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="F8">
-        <v>5.830322610536201</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="G8">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H8">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I8">
-        <v>91.18674873246925</v>
+        <v>132.1811392495881</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>40.15837356247396</v>
+        <v>58.21218150316875</v>
       </c>
       <c r="C9">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D9">
-        <v>10.78396900714927</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="E9">
-        <v>22.46219179300879</v>
+        <v>32.56041192951798</v>
       </c>
       <c r="F9">
-        <v>2.672231196495758</v>
+        <v>3.873573395268199</v>
       </c>
       <c r="G9">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H9">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I9">
-        <v>82.88101736883957</v>
+        <v>120.1414399598744</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>33.26672004012476</v>
+        <v>48.22228026685909</v>
       </c>
       <c r="C10">
-        <v>0.8900400511335933</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="D10">
-        <v>9.035217276260202</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="E10">
-        <v>11.2310958965044</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="F10">
-        <v>2.51027779064753</v>
+        <v>3.638811371312551</v>
       </c>
       <c r="G10">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H10">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I10">
-        <v>62.6142104445757</v>
+        <v>90.76338157487625</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>23.63772750188922</v>
+        <v>34.26442760491248</v>
       </c>
       <c r="C11">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D11">
-        <v>4.663337949037523</v>
+        <v>6.759812487865697</v>
       </c>
       <c r="E11">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F11">
-        <v>2.753207899419872</v>
+        <v>3.990954407246023</v>
       </c>
       <c r="G11">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H11">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I11">
-        <v>42.68776321377034</v>
+        <v>61.87869676291754</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>14.52399877840879</v>
+        <v>21.05348344661515</v>
       </c>
       <c r="C12">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D12">
-        <v>2.623127596333607</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="E12">
-        <v>2.659996396540516</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="F12">
-        <v>1.538557355558164</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="G12">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H12">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I12">
-        <v>26.3669341019788</v>
+        <v>38.22059056347707</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>10.30527629510157</v>
+        <v>14.93817007298637</v>
       </c>
       <c r="C13">
-        <v>2.670120153400779</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="D13">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E13">
-        <v>1.77333093102701</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="F13">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G13">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I13">
-        <v>22.85588741521364</v>
+        <v>33.13109940970534</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>6.795041557082597</v>
+        <v>9.849855891875391</v>
       </c>
       <c r="C14">
-        <v>2.848128163627498</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="D14">
-        <v>1.748751730889071</v>
+        <v>2.534929682949637</v>
       </c>
       <c r="E14">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F14">
-        <v>1.781487464330505</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="G14">
-        <v>5.197148740441532</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="H14">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I14">
-        <v>19.41611197507079</v>
+        <v>28.14492057603742</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>5.184842135972979</v>
+        <v>7.515766817971267</v>
       </c>
       <c r="C15">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D15">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E15">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F15">
-        <v>1.376603949709936</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="G15">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H15">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I15">
-        <v>17.95109052331003</v>
+        <v>26.02127643683288</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>4.733986298062283</v>
+        <v>6.862221877278112</v>
       </c>
       <c r="C16">
-        <v>0.8010360460202338</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="D16">
-        <v>3.788962083592987</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="E16">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F16">
-        <v>1.295627246785822</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="G16">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H16">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I16">
-        <v>15.56302754849207</v>
+        <v>22.55962341159677</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>9.532380572968954</v>
+        <v>13.81780731751239</v>
       </c>
       <c r="C17">
-        <v>1.157052066473671</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="D17">
-        <v>5.829172436296905</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="E17">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F17">
-        <v>2.996138008192214</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="G17">
-        <v>5.846792332996723</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="H17">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I17">
-        <v>26.72486744200024</v>
+        <v>38.73943828331687</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>20.99700045126945</v>
+        <v>30.43652152370971</v>
       </c>
       <c r="C18">
-        <v>0.7120320409068744</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="D18">
-        <v>9.326675898075045</v>
+        <v>13.51962497573139</v>
       </c>
       <c r="E18">
-        <v>14.18664744821608</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="F18">
-        <v>6.88301974854968</v>
+        <v>9.977386018115057</v>
       </c>
       <c r="G18">
-        <v>10.71911927716066</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="H18">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I18">
-        <v>63.30116142373605</v>
+        <v>91.75916182032</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>36.9701787086769</v>
+        <v>53.59068513683859</v>
       </c>
       <c r="C19">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D19">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E19">
-        <v>29.25996036194566</v>
+        <v>42.41422080292472</v>
       </c>
       <c r="F19">
-        <v>11.6606452210724</v>
+        <v>16.90286572480669</v>
       </c>
       <c r="G19">
-        <v>19.16448598037814</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="H19">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I19">
-        <v>117.0862735625969</v>
+        <v>169.7241895903035</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>50.0772019965092</v>
+        <v>72.59017019841815</v>
       </c>
       <c r="C20">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D20">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E20">
-        <v>25.41774334472048</v>
+        <v>36.84467665708613</v>
       </c>
       <c r="F20">
-        <v>11.33673840937595</v>
+        <v>16.43334167689539</v>
       </c>
       <c r="G20">
-        <v>16.56591161015737</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="H20">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I20">
-        <v>121.4773923036962</v>
+        <v>176.0894025828362</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>39.70751772456325</v>
+        <v>57.55863656247558</v>
       </c>
       <c r="C21">
-        <v>1.424064081813749</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="D21">
-        <v>7.577924167185975</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="E21">
-        <v>10.63998558616207</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="F21">
-        <v>8.907437321652527</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="G21">
-        <v>12.01840646227104</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="H21">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I21">
-        <v>80.91089075639296</v>
+        <v>117.2856129486148</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>47.01782309640093</v>
+        <v>68.1554009580003</v>
       </c>
       <c r="C22">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D22">
-        <v>23.60814836700246</v>
+        <v>34.22155071982009</v>
       </c>
       <c r="E22">
-        <v>10.93554074133323</v>
+        <v>15.85177949200217</v>
       </c>
       <c r="F22">
-        <v>16.84315420821569</v>
+        <v>24.41525049138744</v>
       </c>
       <c r="G22">
-        <v>21.76306035059891</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="H22">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I22">
-        <v>125.2534824319635</v>
+        <v>181.5630914905072</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>42.25163280991644</v>
+        <v>61.24649729924414</v>
       </c>
       <c r="C23">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D23">
-        <v>19.23626903977978</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="E23">
-        <v>6.797768568936874</v>
+        <v>9.853808873406754</v>
       </c>
       <c r="F23">
-        <v>18.21975815792562</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="G23">
-        <v>16.56591161015737</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="H23">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I23">
-        <v>108.4939927185412</v>
+        <v>157.2691181407029</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>44.34489205735897</v>
+        <v>64.28081309531944</v>
       </c>
       <c r="C24">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D24">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E24">
-        <v>6.502213413765702</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="F24">
-        <v>17.00510761406391</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="G24">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H24">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I24">
-        <v>105.8823494025118</v>
+        <v>153.4833708295541</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>44.73133991842525</v>
+        <v>64.84099447305643</v>
       </c>
       <c r="C25">
-        <v>3.560160204534373</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="D25">
-        <v>18.0704345525204</v>
+        <v>26.19427339047958</v>
       </c>
       <c r="E25">
-        <v>6.206658258594537</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="F25">
-        <v>13.4421326854029</v>
+        <v>19.48524798831882</v>
       </c>
       <c r="G25">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H25">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I25">
-        <v>100.7654630354391</v>
+        <v>146.0661103305018</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>46.01949945531293</v>
+        <v>66.70826573217971</v>
       </c>
       <c r="C26">
-        <v>3.82717221987445</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="D26">
-        <v>16.03022419981649</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="E26">
-        <v>3.54666186205402</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="F26">
-        <v>17.16706101991214</v>
+        <v>24.88477453929874</v>
       </c>
       <c r="G26">
-        <v>18.19002059154536</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="H26">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I26">
-        <v>106.0517501740041</v>
+        <v>153.7289282957086</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>48.30598263328861</v>
+        <v>70.02267221712361</v>
       </c>
       <c r="C27">
-        <v>3.026136173854217</v>
+        <v>4.386581740708678</v>
       </c>
       <c r="D27">
-        <v>22.44231387974308</v>
+        <v>32.53159759785367</v>
       </c>
       <c r="E27">
-        <v>7.093323724108041</v>
+        <v>10.28223534616357</v>
       </c>
       <c r="F27">
-        <v>14.41385312049227</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="G27">
-        <v>7.146079518107104</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="H27">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I27">
-        <v>103.539911021896</v>
+        <v>150.087853629131</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>46.76019118902338</v>
+        <v>67.7819467061756</v>
       </c>
       <c r="C28">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D28">
-        <v>22.15085525792823</v>
+        <v>32.10910931736205</v>
       </c>
       <c r="E28">
-        <v>6.502213413765702</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="F28">
-        <v>13.60408609125114</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="G28">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H28">
-        <v>2.542221650977436</v>
+        <v>3.685116080155988</v>
       </c>
       <c r="I28">
-        <v>110.8047567013324</v>
+        <v>160.6187212357574</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>51.42976951024128</v>
+        <v>74.55080502049761</v>
       </c>
       <c r="C29">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D29">
-        <v>21.56793801429854</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="E29">
-        <v>8.57109949996388</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="F29">
-        <v>13.52310938832702</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="G29">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H29">
-        <v>3.972221329652244</v>
+        <v>5.757993875243733</v>
       </c>
       <c r="I29">
-        <v>111.8395064720792</v>
+        <v>162.1186585121358</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>64.44018083280702</v>
+        <v>93.41024473764281</v>
       </c>
       <c r="C30">
-        <v>1.958088112493905</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="D30">
-        <v>13.69855522529772</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="E30">
-        <v>14.18664744821608</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="F30">
-        <v>11.74162192399652</v>
+        <v>17.02024673678451</v>
       </c>
       <c r="G30">
-        <v>6.821257721829508</v>
+        <v>9.887857932425902</v>
       </c>
       <c r="H30">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I30">
-        <v>114.9119063560599</v>
+        <v>166.5723025178712</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>67.04870389500458</v>
+        <v>97.19146903736753</v>
       </c>
       <c r="C31">
-        <v>2.581116148287419</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="D31">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E31">
-        <v>20.68886086198179</v>
+        <v>29.98985309297707</v>
       </c>
       <c r="F31">
-        <v>8.988414024576642</v>
+        <v>13.02929232953849</v>
       </c>
       <c r="G31">
-        <v>6.171614129274317</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="H31">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I31">
-        <v>123.310323158945</v>
+        <v>178.7463553964881</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>53.03996893135091</v>
+        <v>76.88489409440172</v>
       </c>
       <c r="C32">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D32">
-        <v>14.57293109074226</v>
+        <v>21.1244140245803</v>
       </c>
       <c r="E32">
-        <v>13.89109229304492</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="F32">
-        <v>6.316182828080882</v>
+        <v>9.15571893427029</v>
       </c>
       <c r="G32">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="H32">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I32">
-        <v>95.99158587343825</v>
+        <v>139.1460640443666</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>44.40930003420333</v>
+        <v>64.37417665827562</v>
       </c>
       <c r="C33">
-        <v>2.670120153400779</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="D33">
-        <v>11.36688625077896</v>
+        <v>16.47704293917263</v>
       </c>
       <c r="E33">
-        <v>18.91552993095478</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="F33">
-        <v>4.048835146205693</v>
+        <v>5.869050598891212</v>
       </c>
       <c r="G33">
-        <v>5.197148740441532</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="H33">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I33">
-        <v>86.76670910917116</v>
+        <v>125.7740035521638</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>36.487118882344</v>
+        <v>52.89045841466737</v>
       </c>
       <c r="C34">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D34">
-        <v>7.577924167185975</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="E34">
-        <v>9.162209810306221</v>
+        <v>13.28122065546128</v>
       </c>
       <c r="F34">
-        <v>2.591254493571644</v>
+        <v>3.756192383290375</v>
       </c>
       <c r="G34">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="H34">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I34">
-        <v>60.83271723864016</v>
+        <v>88.18099098853318</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>25.79539472617612</v>
+        <v>37.39210696394399</v>
       </c>
       <c r="C35">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D35">
-        <v>7.286465545371131</v>
+        <v>10.56220701229015</v>
       </c>
       <c r="E35">
-        <v>5.024437637909862</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="F35">
-        <v>1.943440870178733</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="G35">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H35">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I35">
-        <v>46.12238708158451</v>
+        <v>66.85740805652293</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>16.23081016478498</v>
+        <v>23.52761786495353</v>
       </c>
       <c r="C36">
-        <v>3.115140178967576</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="D36">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E36">
-        <v>2.659996396540516</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="F36">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G36">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H36">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I36">
-        <v>29.62235203660825</v>
+        <v>42.9395311695878</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>12.3341275656997</v>
+        <v>17.87912230610557</v>
       </c>
       <c r="C37">
-        <v>3.738168214761092</v>
+        <v>5.418718620875426</v>
       </c>
       <c r="D37">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E37">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F37">
-        <v>1.376603949709936</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="G37">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H37">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I37">
-        <v>25.42947994452417</v>
+        <v>36.86168962393199</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>6.923857510771366</v>
+        <v>10.03658301778772</v>
       </c>
       <c r="C38">
-        <v>2.581116148287419</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="D38">
-        <v>2.331668974518761</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="E38">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F38">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G38">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H38">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I38">
-        <v>17.6132826715503</v>
+        <v>25.53160192476031</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>4.637374332795709</v>
+        <v>6.722176532843865</v>
       </c>
       <c r="C39">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D39">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E39">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F39">
-        <v>1.538557355558164</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="G39">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H39">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I39">
-        <v>15.24518122864578</v>
+        <v>22.09888444187175</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>4.669578321217902</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="C40">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D40">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E40">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F40">
-        <v>1.700510761406392</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="G40">
-        <v>4.222683351608743</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H40">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I40">
-        <v>15.98230450232897</v>
+        <v>23.16739270033251</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>8.72728086241414</v>
+        <v>12.65076278056032</v>
       </c>
       <c r="C41">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D41">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E41">
-        <v>1.477775775855842</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="F41">
-        <v>4.129811849129808</v>
+        <v>5.986431610869034</v>
       </c>
       <c r="G41">
-        <v>6.496435925551915</v>
+        <v>9.417007554691338</v>
       </c>
       <c r="H41">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I41">
-        <v>26.04965802779258</v>
+        <v>37.76067820202629</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>22.67160784922344</v>
+        <v>32.86397416057</v>
       </c>
       <c r="C42">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D42">
-        <v>7.577924167185975</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="E42">
-        <v>12.41331651718907</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="F42">
-        <v>8.178646995335502</v>
+        <v>11.85548220976025</v>
       </c>
       <c r="G42">
-        <v>12.01840646227104</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="H42">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I42">
-        <v>65.1100568729407</v>
+        <v>94.3812737453845</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>33.74977986645764</v>
+        <v>48.92250698903035</v>
       </c>
       <c r="C43">
-        <v>0.4450200255667967</v>
+        <v>0.6450855501042174</v>
       </c>
       <c r="D43">
-        <v>10.78396900714927</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="E43">
-        <v>24.23552272403581</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="F43">
-        <v>9.960134459666005</v>
+        <v>14.43786447327238</v>
       </c>
       <c r="G43">
-        <v>24.03681292454208</v>
+        <v>34.84292795235795</v>
       </c>
       <c r="H43">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I43">
-        <v>104.6412386860924</v>
+        <v>151.6842999041009</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>54.03829257243886</v>
+        <v>78.33202932022226</v>
       </c>
       <c r="C44">
-        <v>1.513068086927108</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="D44">
-        <v>13.69855522529772</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="E44">
-        <v>27.1910742757475</v>
+        <v>39.41523549362702</v>
       </c>
       <c r="F44">
-        <v>11.82259862692063</v>
+        <v>17.13762774876234</v>
       </c>
       <c r="G44">
-        <v>17.54037699899016</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="H44">
-        <v>2.859999357349615</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="I44">
-        <v>128.6639651436716</v>
+        <v>186.5068086039136</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>54.84339228299365</v>
+        <v>79.49907385717435</v>
       </c>
       <c r="C45">
-        <v>3.115140178967576</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="D45">
-        <v>16.61314144344617</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="E45">
-        <v>14.18664744821608</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="F45">
-        <v>13.52310938832702</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="G45">
-        <v>19.81412957293334</v>
+        <v>28.72187304180859</v>
       </c>
       <c r="H45">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I45">
-        <v>123.3666711403726</v>
+        <v>178.8280354704358</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>47.08223107324533</v>
+        <v>68.24876452095647</v>
       </c>
       <c r="C46">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D46">
-        <v>25.64835871970638</v>
+        <v>37.17896868326135</v>
       </c>
       <c r="E46">
-        <v>13.0044268275314</v>
+        <v>18.85076480129988</v>
       </c>
       <c r="F46">
-        <v>14.81873663511284</v>
+        <v>21.48072519194183</v>
       </c>
       <c r="G46">
-        <v>21.11341675804372</v>
+        <v>30.60527455274685</v>
       </c>
       <c r="H46">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I46">
-        <v>127.7444971152498</v>
+        <v>185.1739797314099</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>35.03793940334536</v>
+        <v>50.78977824815365</v>
       </c>
       <c r="C47">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D47">
-        <v>14.86438971255711</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="E47">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F47">
-        <v>13.11822587370645</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="G47">
-        <v>14.29215903621421</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="H47">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I47">
-        <v>87.3718704496535</v>
+        <v>126.6512243822368</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>36.77695477814372</v>
+        <v>53.31059444797011</v>
       </c>
       <c r="C48">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D48">
-        <v>13.11563798166803</v>
+        <v>19.01197262212227</v>
       </c>
       <c r="E48">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F48">
-        <v>12.30845884446531</v>
+        <v>17.84191382062928</v>
       </c>
       <c r="G48">
-        <v>12.66805005482624</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="H48">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I48">
-        <v>85.72270234886413</v>
+        <v>124.2606476657013</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>37.09899466236567</v>
+        <v>53.77741226275092</v>
       </c>
       <c r="C49">
-        <v>2.848128163627498</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="D49">
-        <v>13.99001384711257</v>
+        <v>20.27943746359709</v>
       </c>
       <c r="E49">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F49">
-        <v>9.717204350893667</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="G49">
-        <v>11.69358466599345</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="H49">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I49">
-        <v>81.78014045537651</v>
+        <v>118.5456470774892</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>69.69589974677703</v>
+        <v>47.36979868812139</v>
       </c>
       <c r="C2">
-        <v>6.192821281000486</v>
+        <v>4.209038099204289</v>
       </c>
       <c r="D2">
-        <v>27.03924995146279</v>
+        <v>18.37760659568527</v>
       </c>
       <c r="E2">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F2">
-        <v>23.59358340754267</v>
+        <v>16.03571085827585</v>
       </c>
       <c r="G2">
-        <v>16.00891284297528</v>
+        <v>10.88068281409177</v>
       </c>
       <c r="H2">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I2">
-        <v>153.2363005545077</v>
+        <v>104.1492072754992</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>71.98330703920305</v>
+        <v>48.92446723180389</v>
       </c>
       <c r="C3">
-        <v>6.837906831104704</v>
+        <v>4.647479567871402</v>
       </c>
       <c r="D3">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="E3">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F3">
-        <v>22.7719163236979</v>
+        <v>15.47725326619659</v>
       </c>
       <c r="G3">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="H3">
-        <v>2.763837060116991</v>
+        <v>1.878480737320067</v>
       </c>
       <c r="I3">
-        <v>152.2433421945331</v>
+        <v>103.474329158012</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>72.91694266876473</v>
+        <v>49.55902582106204</v>
       </c>
       <c r="C4">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="D4">
-        <v>27.88422651244601</v>
+        <v>18.95190680180043</v>
       </c>
       <c r="E4">
-        <v>7.283250036865859</v>
+        <v>4.950163342392934</v>
       </c>
       <c r="F4">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="G4">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="H4">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="I4">
-        <v>150.8986982810247</v>
+        <v>102.5604230068392</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>78.84552891648116</v>
+        <v>53.58847286285133</v>
       </c>
       <c r="C5">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="D5">
-        <v>29.15169135392082</v>
+        <v>19.81335711097318</v>
       </c>
       <c r="E5">
-        <v>12.42436770994765</v>
+        <v>8.444396289964418</v>
       </c>
       <c r="F5">
-        <v>20.89382013205271</v>
+        <v>14.20077877001543</v>
       </c>
       <c r="G5">
-        <v>12.24210982109874</v>
+        <v>8.320522151952535</v>
       </c>
       <c r="H5">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I5">
-        <v>161.1504169944532</v>
+        <v>109.5281478432606</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>90.00247468974285</v>
+        <v>61.1714480044863</v>
       </c>
       <c r="C6">
-        <v>5.031667290812894</v>
+        <v>3.419843455603485</v>
       </c>
       <c r="D6">
-        <v>26.61676167097118</v>
+        <v>18.09045649262769</v>
       </c>
       <c r="E6">
-        <v>27.41929425643619</v>
+        <v>18.63590905371458</v>
       </c>
       <c r="F6">
-        <v>17.60715179667363</v>
+        <v>11.96694840169839</v>
       </c>
       <c r="G6">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="H6">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I6">
-        <v>174.8712824102739</v>
+        <v>118.8537270370968</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>96.07110628189356</v>
+        <v>65.29607883466431</v>
       </c>
       <c r="C7">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="D7">
-        <v>18.16699606113906</v>
+        <v>12.34745443147603</v>
       </c>
       <c r="E7">
-        <v>28.70457367470663</v>
+        <v>19.50946729060745</v>
       </c>
       <c r="F7">
-        <v>11.38595816184895</v>
+        <v>7.738626633098295</v>
       </c>
       <c r="G7">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="H7">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I7">
-        <v>164.6881432905477</v>
+        <v>111.9326132862571</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>73.10366979467703</v>
+        <v>49.68593753891364</v>
       </c>
       <c r="C8">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="D8">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="E8">
-        <v>17.13705891027262</v>
+        <v>11.64744315857161</v>
       </c>
       <c r="F8">
-        <v>8.451432862403344</v>
+        <v>5.744135232815229</v>
       </c>
       <c r="G8">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="H8">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I8">
-        <v>132.1811392495881</v>
+        <v>89.8387707077284</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>58.21218150316875</v>
+        <v>39.56472804024607</v>
       </c>
       <c r="C9">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="D9">
-        <v>15.63206637818942</v>
+        <v>10.62455381313055</v>
       </c>
       <c r="E9">
-        <v>32.56041192951798</v>
+        <v>22.13014200128606</v>
       </c>
       <c r="F9">
-        <v>3.873573395268199</v>
+        <v>2.632728648373647</v>
       </c>
       <c r="G9">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H9">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I9">
-        <v>120.1414399598744</v>
+        <v>81.65581972077845</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>48.22228026685909</v>
+        <v>32.77495113518378</v>
       </c>
       <c r="C10">
-        <v>1.290171100208435</v>
+        <v>0.8768829373342271</v>
       </c>
       <c r="D10">
-        <v>13.09713669523979</v>
+        <v>8.90165319478505</v>
       </c>
       <c r="E10">
-        <v>16.28020596475899</v>
+        <v>11.06507100064303</v>
       </c>
       <c r="F10">
-        <v>3.638811371312551</v>
+        <v>2.473169336351002</v>
       </c>
       <c r="G10">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="H10">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I10">
-        <v>90.76338157487625</v>
+        <v>61.68860907278631</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>34.26442760491248</v>
+        <v>23.28830022577434</v>
       </c>
       <c r="C11">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="D11">
-        <v>6.759812487865697</v>
+        <v>4.594401648921317</v>
       </c>
       <c r="E11">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F11">
-        <v>3.990954407246023</v>
+        <v>2.71250830438497</v>
       </c>
       <c r="G11">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="H11">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I11">
-        <v>61.87869676291754</v>
+        <v>42.05672671408852</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>21.05348344661515</v>
+        <v>14.30929618777143</v>
       </c>
       <c r="C12">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="D12">
-        <v>3.802394524424455</v>
+        <v>2.58435092751824</v>
       </c>
       <c r="E12">
-        <v>3.855838254811339</v>
+        <v>2.620674710678612</v>
       </c>
       <c r="F12">
-        <v>2.23023922757866</v>
+        <v>1.51581346421513</v>
       </c>
       <c r="G12">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="H12">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I12">
-        <v>38.22059056347707</v>
+        <v>25.97716203264519</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>14.93817007298637</v>
+        <v>10.15293742813051</v>
       </c>
       <c r="C13">
-        <v>3.870513300625304</v>
+        <v>2.630648812002681</v>
       </c>
       <c r="D13">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="E13">
-        <v>2.570558836540892</v>
+        <v>1.747116473785742</v>
       </c>
       <c r="F13">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="G13">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="I13">
-        <v>33.13109940970534</v>
+        <v>22.51801777516267</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>9.849855891875391</v>
+        <v>6.694593116673553</v>
       </c>
       <c r="C14">
-        <v>4.12854752066699</v>
+        <v>2.806025399469526</v>
       </c>
       <c r="D14">
-        <v>2.534929682949637</v>
+        <v>1.722900618345494</v>
       </c>
       <c r="E14">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F14">
-        <v>2.582382263512133</v>
+        <v>1.755152432249098</v>
       </c>
       <c r="G14">
-        <v>7.533606043753073</v>
+        <v>5.120321324278483</v>
       </c>
       <c r="H14">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I14">
-        <v>28.14492057603742</v>
+        <v>19.12909118935236</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>7.515766817971267</v>
+        <v>5.10819664352816</v>
       </c>
       <c r="C15">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="D15">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="E15">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="F15">
-        <v>1.995477203623012</v>
+        <v>1.356254152192485</v>
       </c>
       <c r="G15">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H15">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I15">
-        <v>26.02127643683288</v>
+        <v>17.6857265764437</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>6.862221877278112</v>
+        <v>4.664005631047448</v>
       </c>
       <c r="C16">
-        <v>1.161153990187591</v>
+        <v>0.7891946436008044</v>
       </c>
       <c r="D16">
-        <v>5.492347646390878</v>
+        <v>3.73295133974857</v>
       </c>
       <c r="E16">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F16">
-        <v>1.878096191645188</v>
+        <v>1.276474496181162</v>
       </c>
       <c r="G16">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="H16">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I16">
-        <v>22.55962341159677</v>
+        <v>15.33296540212306</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>13.81780731751239</v>
+        <v>9.391467121020709</v>
       </c>
       <c r="C17">
-        <v>1.677222430270965</v>
+        <v>1.139947818534495</v>
       </c>
       <c r="D17">
-        <v>8.449765609832122</v>
+        <v>5.743002061151644</v>
       </c>
       <c r="E17">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F17">
-        <v>4.343097443179496</v>
+        <v>2.951847272418938</v>
       </c>
       <c r="G17">
-        <v>8.475306799222206</v>
+        <v>5.760361489813294</v>
       </c>
       <c r="H17">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I17">
-        <v>38.73943828331687</v>
+        <v>26.32980418416197</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>30.43652152370971</v>
+        <v>20.6866100098159</v>
       </c>
       <c r="C18">
-        <v>1.032136880166747</v>
+        <v>0.7015063498673816</v>
       </c>
       <c r="D18">
-        <v>13.51962497573139</v>
+        <v>9.188803297842634</v>
       </c>
       <c r="E18">
-        <v>20.56447069232713</v>
+        <v>13.97693179028594</v>
       </c>
       <c r="F18">
-        <v>9.977386018115057</v>
+        <v>6.781270760962425</v>
       </c>
       <c r="G18">
-        <v>15.5380624652407</v>
+        <v>10.56066273132437</v>
       </c>
       <c r="H18">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I18">
-        <v>91.75916182032</v>
+        <v>62.36540512442867</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>53.59068513683859</v>
+        <v>36.42366302341819</v>
       </c>
       <c r="C19">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="D19">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="E19">
-        <v>42.41422080292472</v>
+        <v>28.82742181746474</v>
       </c>
       <c r="F19">
-        <v>16.90286572480669</v>
+        <v>11.48827046563046</v>
       </c>
       <c r="G19">
-        <v>27.78017228633945</v>
+        <v>18.88118488327691</v>
       </c>
       <c r="H19">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I19">
-        <v>169.7241895903035</v>
+        <v>115.355432996889</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>72.59017019841815</v>
+        <v>49.33693031482167</v>
       </c>
       <c r="C20">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="D20">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="E20">
-        <v>36.84467665708613</v>
+        <v>25.04200279092897</v>
       </c>
       <c r="F20">
-        <v>16.43334167689539</v>
+        <v>11.16915184158517</v>
       </c>
       <c r="G20">
-        <v>24.01336926446291</v>
+        <v>16.32102422113767</v>
       </c>
       <c r="H20">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I20">
-        <v>176.0894025828362</v>
+        <v>119.6816395479025</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>57.55863656247558</v>
+        <v>39.12053702776534</v>
       </c>
       <c r="C21">
-        <v>2.064273760333495</v>
+        <v>1.403012699734763</v>
       </c>
       <c r="D21">
-        <v>10.98469529278176</v>
+        <v>7.465902679497139</v>
       </c>
       <c r="E21">
-        <v>15.42335301924535</v>
+        <v>10.48269884271445</v>
       </c>
       <c r="F21">
-        <v>12.91191131756067</v>
+        <v>8.775762161245488</v>
       </c>
       <c r="G21">
-        <v>17.42146397617897</v>
+        <v>11.84074306239399</v>
       </c>
       <c r="H21">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I21">
-        <v>117.2856129486148</v>
+        <v>79.71481671912453</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>68.1554009580003</v>
+        <v>46.3227770158454</v>
       </c>
       <c r="C22">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="D22">
-        <v>34.22155071982009</v>
+        <v>23.25915834766416</v>
       </c>
       <c r="E22">
-        <v>15.85177949200217</v>
+        <v>10.77388492167874</v>
       </c>
       <c r="F22">
-        <v>24.41525049138744</v>
+        <v>16.59416845035511</v>
       </c>
       <c r="G22">
-        <v>31.54697530821599</v>
+        <v>21.44134554541615</v>
       </c>
       <c r="H22">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I22">
-        <v>181.5630914905072</v>
+        <v>123.401909213404</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>61.24649729924414</v>
+        <v>41.62704345533507</v>
       </c>
       <c r="C23">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="D23">
-        <v>27.88422651244601</v>
+        <v>18.95190680180043</v>
       </c>
       <c r="E23">
-        <v>9.853808873406754</v>
+        <v>6.697279816178675</v>
       </c>
       <c r="F23">
-        <v>26.41072769501044</v>
+        <v>17.95042260254759</v>
       </c>
       <c r="G23">
-        <v>24.01336926446291</v>
+        <v>16.32102422113767</v>
       </c>
       <c r="H23">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I23">
-        <v>157.2691181407029</v>
+        <v>106.8901684783541</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>64.28081309531944</v>
+        <v>43.68935887042411</v>
       </c>
       <c r="C24">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="D24">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="E24">
-        <v>9.425382400649941</v>
+        <v>6.406093737214384</v>
       </c>
       <c r="F24">
-        <v>24.65001251534309</v>
+        <v>16.75372776237775</v>
       </c>
       <c r="G24">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="H24">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I24">
-        <v>153.4833708295541</v>
+        <v>104.3171320635182</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>64.84099447305643</v>
+        <v>44.07009402397898</v>
       </c>
       <c r="C25">
-        <v>5.160684400833739</v>
+        <v>3.507531749336908</v>
       </c>
       <c r="D25">
-        <v>26.19427339047958</v>
+        <v>17.8033063895701</v>
       </c>
       <c r="E25">
-        <v>8.996955927893124</v>
+        <v>6.114907658250096</v>
       </c>
       <c r="F25">
-        <v>19.48524798831882</v>
+        <v>13.24342289787956</v>
       </c>
       <c r="G25">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="H25">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I25">
-        <v>146.0661103305018</v>
+        <v>99.27588662535001</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>66.70826573217971</v>
+        <v>45.33921120249527</v>
       </c>
       <c r="C26">
-        <v>5.547735730896268</v>
+        <v>3.770596630537177</v>
       </c>
       <c r="D26">
-        <v>23.23685542703833</v>
+        <v>15.79325566816703</v>
       </c>
       <c r="E26">
-        <v>5.141117673081784</v>
+        <v>3.494232947571485</v>
       </c>
       <c r="F26">
-        <v>24.88477453929874</v>
+        <v>16.9132870744004</v>
       </c>
       <c r="G26">
-        <v>26.36762115313575</v>
+        <v>17.92112463497468</v>
       </c>
       <c r="H26">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I26">
-        <v>153.7289282957086</v>
+        <v>104.4840286496928</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>70.02267221712361</v>
+        <v>47.59189419436173</v>
       </c>
       <c r="C27">
-        <v>4.386581740708678</v>
+        <v>2.981401986936372</v>
       </c>
       <c r="D27">
-        <v>32.53159759785367</v>
+        <v>22.11055793543384</v>
       </c>
       <c r="E27">
-        <v>10.28223534616357</v>
+        <v>6.988465895142969</v>
       </c>
       <c r="F27">
-        <v>20.89382013205271</v>
+        <v>14.20077877001543</v>
       </c>
       <c r="G27">
-        <v>10.35870831016047</v>
+        <v>7.040441820882911</v>
       </c>
       <c r="H27">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I27">
-        <v>150.087853629131</v>
+        <v>102.0093210328766</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>67.7819467061756</v>
+        <v>46.06895358014212</v>
       </c>
       <c r="C28">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="D28">
-        <v>32.10910931736205</v>
+        <v>21.82340783237625</v>
       </c>
       <c r="E28">
-        <v>9.425382400649941</v>
+        <v>6.406093737214384</v>
       </c>
       <c r="F28">
-        <v>19.72001001227447</v>
+        <v>13.40298220990221</v>
       </c>
       <c r="G28">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="H28">
-        <v>3.685116080155988</v>
+        <v>2.504640983093422</v>
       </c>
       <c r="I28">
-        <v>160.6187212357574</v>
+        <v>109.1667733413996</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>74.55080502049761</v>
+        <v>50.66950335226377</v>
       </c>
       <c r="C29">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="D29">
-        <v>31.26413275637885</v>
+        <v>21.24910762626109</v>
       </c>
       <c r="E29">
-        <v>12.42436770994765</v>
+        <v>8.444396289964418</v>
       </c>
       <c r="F29">
-        <v>19.60262900029664</v>
+        <v>13.32320255389088</v>
       </c>
       <c r="G29">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="H29">
-        <v>5.757993875243733</v>
+        <v>3.913501536083472</v>
       </c>
       <c r="I29">
-        <v>162.1186585121358</v>
+        <v>110.1862268111876</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>93.41024473764281</v>
+        <v>63.48758685527854</v>
       </c>
       <c r="C30">
-        <v>2.838376420458556</v>
+        <v>1.9291424621353</v>
       </c>
       <c r="D30">
-        <v>19.85694918310548</v>
+        <v>13.49605484370637</v>
       </c>
       <c r="E30">
-        <v>20.56447069232713</v>
+        <v>13.97693179028594</v>
       </c>
       <c r="F30">
-        <v>17.02024673678451</v>
+        <v>11.56805012164178</v>
       </c>
       <c r="G30">
-        <v>9.887857932425902</v>
+        <v>6.720421738115507</v>
       </c>
       <c r="H30">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I30">
-        <v>166.5723025178712</v>
+        <v>113.2132086099269</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>97.19146903736753</v>
+        <v>66.05754914177407</v>
       </c>
       <c r="C31">
-        <v>3.74149619060446</v>
+        <v>2.542960518269258</v>
       </c>
       <c r="D31">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="E31">
-        <v>29.98985309297707</v>
+        <v>20.38302552750032</v>
       </c>
       <c r="F31">
-        <v>13.02929232953849</v>
+        <v>8.855541817256814</v>
       </c>
       <c r="G31">
-        <v>8.946157176956774</v>
+        <v>6.080381572580698</v>
       </c>
       <c r="H31">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I31">
-        <v>178.7463553964881</v>
+        <v>121.4874749035519</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>76.88489409440172</v>
+        <v>52.25589982540921</v>
       </c>
       <c r="C32">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="D32">
-        <v>21.1244140245803</v>
+        <v>14.35750515287911</v>
       </c>
       <c r="E32">
-        <v>20.13604421957032</v>
+        <v>13.68574571132164</v>
       </c>
       <c r="F32">
-        <v>9.15571893427029</v>
+        <v>6.222813168883166</v>
       </c>
       <c r="G32">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="H32">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I32">
-        <v>139.1460640443666</v>
+        <v>94.57257982139613</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>64.37417665827562</v>
+        <v>43.7528147293499</v>
       </c>
       <c r="C33">
-        <v>3.870513300625304</v>
+        <v>2.630648812002681</v>
       </c>
       <c r="D33">
-        <v>16.47704293917263</v>
+        <v>11.19885401924571</v>
       </c>
       <c r="E33">
-        <v>27.41929425643619</v>
+        <v>18.63590905371458</v>
       </c>
       <c r="F33">
-        <v>5.869050598891212</v>
+        <v>3.988982800566132</v>
       </c>
       <c r="G33">
-        <v>7.533606043753073</v>
+        <v>5.120321324278483</v>
       </c>
       <c r="H33">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I33">
-        <v>125.7740035521638</v>
+        <v>85.48407080060082</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>52.89045841466737</v>
+        <v>35.94774408147456</v>
       </c>
       <c r="C34">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="D34">
-        <v>10.98469529278176</v>
+        <v>7.465902679497139</v>
       </c>
       <c r="E34">
-        <v>13.28122065546128</v>
+        <v>9.026768447892996</v>
       </c>
       <c r="F34">
-        <v>3.756192383290375</v>
+        <v>2.552948992362325</v>
       </c>
       <c r="G34">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="H34">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I34">
-        <v>88.18099098853318</v>
+        <v>59.93345098380807</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>37.39210696394399</v>
+        <v>25.41407149978918</v>
       </c>
       <c r="C35">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="D35">
-        <v>10.56220701229015</v>
+        <v>7.178752576439557</v>
       </c>
       <c r="E35">
-        <v>7.283250036865859</v>
+        <v>4.950163342392934</v>
       </c>
       <c r="F35">
-        <v>2.817144287467781</v>
+        <v>1.914711744271744</v>
       </c>
       <c r="G35">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="H35">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I35">
-        <v>66.85740805652293</v>
+        <v>45.44057788124804</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>23.52761786495353</v>
+        <v>15.99087644930555</v>
       </c>
       <c r="C36">
-        <v>4.515598850729521</v>
+        <v>3.069090280669794</v>
       </c>
       <c r="D36">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="E36">
-        <v>3.855838254811339</v>
+        <v>2.620674710678612</v>
       </c>
       <c r="F36">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="G36">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="H36">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I36">
-        <v>42.9395311695878</v>
+        <v>29.18445639780621</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>17.87912230610557</v>
+        <v>12.1517969842937</v>
       </c>
       <c r="C37">
-        <v>5.418718620875426</v>
+        <v>3.682908336803754</v>
       </c>
       <c r="D37">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="E37">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="F37">
-        <v>1.995477203623012</v>
+        <v>1.356254152192485</v>
       </c>
       <c r="G37">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="H37">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I37">
-        <v>36.86168962393199</v>
+        <v>25.05356589317033</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>10.03658301778772</v>
+        <v>6.821504834525186</v>
       </c>
       <c r="C38">
-        <v>3.74149619060446</v>
+        <v>2.542960518269258</v>
       </c>
       <c r="D38">
-        <v>3.379906243932849</v>
+        <v>2.297200824460659</v>
       </c>
       <c r="E38">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="F38">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="G38">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="H38">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I38">
-        <v>25.53160192476031</v>
+        <v>17.35291240597087</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>6.722176532843865</v>
+        <v>4.568821842658726</v>
       </c>
       <c r="C39">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="D39">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="E39">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="F39">
-        <v>2.23023922757866</v>
+        <v>1.51581346421513</v>
       </c>
       <c r="G39">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="H39">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I39">
-        <v>22.09888444187175</v>
+        <v>15.0198176800484</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>6.768858314321946</v>
+        <v>4.600549772121635</v>
       </c>
       <c r="C40">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="D40">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="E40">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F40">
-        <v>2.465001251534308</v>
+        <v>1.675372776237776</v>
       </c>
       <c r="G40">
-        <v>6.121054910549371</v>
+        <v>4.160261075976267</v>
       </c>
       <c r="H40">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I40">
-        <v>23.16739270033251</v>
+        <v>15.74604434881628</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>12.65076278056032</v>
+        <v>8.59826888444802</v>
       </c>
       <c r="C41">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="D41">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="E41">
-        <v>2.142132363784077</v>
+        <v>1.455930394821451</v>
       </c>
       <c r="F41">
-        <v>5.986431610869034</v>
+        <v>4.068762456577455</v>
       </c>
       <c r="G41">
-        <v>9.417007554691338</v>
+        <v>6.400401655348105</v>
       </c>
       <c r="H41">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I41">
-        <v>37.76067820202629</v>
+        <v>25.66457612651217</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>32.86397416057</v>
+        <v>22.33646234188712</v>
       </c>
       <c r="C42">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="D42">
-        <v>10.98469529278176</v>
+        <v>7.465902679497139</v>
       </c>
       <c r="E42">
-        <v>17.99391185578625</v>
+        <v>12.22981531650019</v>
       </c>
       <c r="F42">
-        <v>11.85548220976025</v>
+        <v>8.057745257143587</v>
       </c>
       <c r="G42">
-        <v>17.42146397617897</v>
+        <v>11.84074306239399</v>
       </c>
       <c r="H42">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I42">
-        <v>94.3812737453845</v>
+        <v>64.1475603800364</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>48.92250698903035</v>
+        <v>33.25087007712741</v>
       </c>
       <c r="C43">
-        <v>0.6450855501042174</v>
+        <v>0.4384414686671135</v>
       </c>
       <c r="D43">
-        <v>15.63206637818942</v>
+        <v>10.62455381313055</v>
       </c>
       <c r="E43">
-        <v>35.13097076605887</v>
+        <v>23.87725847507181</v>
       </c>
       <c r="F43">
-        <v>14.43786447327238</v>
+        <v>9.812897689392685</v>
       </c>
       <c r="G43">
-        <v>34.84292795235795</v>
+        <v>23.68148612478798</v>
       </c>
       <c r="H43">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I43">
-        <v>151.6842999041009</v>
+        <v>103.0943682011676</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>78.33202932022226</v>
+        <v>53.23946563875936</v>
       </c>
       <c r="C44">
-        <v>2.193290870354339</v>
+        <v>1.490700993468186</v>
       </c>
       <c r="D44">
-        <v>19.85694918310548</v>
+        <v>13.49605484370637</v>
       </c>
       <c r="E44">
-        <v>39.41523549362702</v>
+        <v>26.7891192647147</v>
       </c>
       <c r="F44">
-        <v>17.13762774876234</v>
+        <v>11.6478297776531</v>
       </c>
       <c r="G44">
-        <v>25.42592039766662</v>
+        <v>17.28108446943988</v>
       </c>
       <c r="H44">
-        <v>4.145755590175487</v>
+        <v>2.817721105980099</v>
       </c>
       <c r="I44">
-        <v>186.5068086039136</v>
+        <v>126.7619760937217</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>79.49907385717435</v>
+        <v>54.03266387533203</v>
       </c>
       <c r="C45">
-        <v>4.515598850729521</v>
+        <v>3.069090280669794</v>
       </c>
       <c r="D45">
-        <v>24.08183198802155</v>
+        <v>16.36755587428219</v>
       </c>
       <c r="E45">
-        <v>20.56447069232713</v>
+        <v>13.97693179028594</v>
       </c>
       <c r="F45">
-        <v>19.60262900029664</v>
+        <v>13.32320255389088</v>
       </c>
       <c r="G45">
-        <v>28.72187304180859</v>
+        <v>19.52122504881171</v>
       </c>
       <c r="H45">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I45">
-        <v>178.8280354704358</v>
+        <v>121.5429899148193</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>68.24876452095647</v>
+        <v>46.38623287477125</v>
       </c>
       <c r="C46">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="D46">
-        <v>37.17896868326135</v>
+        <v>25.26920906906724</v>
       </c>
       <c r="E46">
-        <v>18.85076480129988</v>
+        <v>12.81218747442877</v>
       </c>
       <c r="F46">
-        <v>21.48072519194183</v>
+        <v>14.59967705007204</v>
       </c>
       <c r="G46">
-        <v>30.60527455274685</v>
+        <v>20.80130537988133</v>
       </c>
       <c r="H46">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I46">
-        <v>185.1739797314099</v>
+        <v>125.8561002013722</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>50.78977824815365</v>
+        <v>34.51998725564374</v>
       </c>
       <c r="C47">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="D47">
-        <v>21.5469023050719</v>
+        <v>14.64465525593669</v>
       </c>
       <c r="E47">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="F47">
-        <v>19.01572394040753</v>
+        <v>12.92430427383427</v>
       </c>
       <c r="G47">
-        <v>20.71741662032094</v>
+        <v>14.08088364176582</v>
       </c>
       <c r="H47">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I47">
-        <v>126.6512243822368</v>
+        <v>86.08028627778907</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>53.31059444797011</v>
+        <v>36.23329544664074</v>
       </c>
       <c r="C48">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="D48">
-        <v>19.01197262212227</v>
+        <v>12.9217546375912</v>
       </c>
       <c r="E48">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="F48">
-        <v>17.84191382062928</v>
+        <v>12.12650771372104</v>
       </c>
       <c r="G48">
-        <v>18.36316473164811</v>
+        <v>12.4807832279288</v>
       </c>
       <c r="H48">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I48">
-        <v>124.2606476657013</v>
+        <v>84.45549718370702</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>53.77741226275092</v>
+        <v>36.55057474126981</v>
       </c>
       <c r="C49">
-        <v>4.12854752066699</v>
+        <v>2.806025399469526</v>
       </c>
       <c r="D49">
-        <v>20.27943746359709</v>
+        <v>13.78320494676395</v>
       </c>
       <c r="E49">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F49">
-        <v>14.0857214373389</v>
+        <v>9.573558721358717</v>
       </c>
       <c r="G49">
-        <v>16.95061359844441</v>
+        <v>11.52072297962659</v>
       </c>
       <c r="H49">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I49">
-        <v>118.5456470774892</v>
+        <v>80.57121663994917</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_가을_배출량/경기대로_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>47.36979868812139</v>
+        <v>69.69589974677703</v>
       </c>
       <c r="C2">
-        <v>4.209038099204289</v>
+        <v>6.192821281000486</v>
       </c>
       <c r="D2">
-        <v>18.37760659568527</v>
+        <v>27.03924995146279</v>
       </c>
       <c r="E2">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F2">
-        <v>16.03571085827585</v>
+        <v>23.59358340754267</v>
       </c>
       <c r="G2">
-        <v>10.88068281409177</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="H2">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I2">
-        <v>104.1492072754992</v>
+        <v>153.2363005545077</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>48.92446723180389</v>
+        <v>71.98330703920305</v>
       </c>
       <c r="C3">
-        <v>4.647479567871402</v>
+        <v>6.837906831104704</v>
       </c>
       <c r="D3">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E3">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F3">
-        <v>15.47725326619659</v>
+        <v>22.7719163236979</v>
       </c>
       <c r="G3">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H3">
-        <v>1.878480737320067</v>
+        <v>2.763837060116991</v>
       </c>
       <c r="I3">
-        <v>103.474329158012</v>
+        <v>152.2433421945331</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>49.55902582106204</v>
+        <v>72.91694266876473</v>
       </c>
       <c r="C4">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D4">
-        <v>18.95190680180043</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="E4">
-        <v>4.950163342392934</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="F4">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G4">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H4">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I4">
-        <v>102.5604230068392</v>
+        <v>150.8986982810247</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>53.58847286285133</v>
+        <v>78.84552891648116</v>
       </c>
       <c r="C5">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D5">
-        <v>19.81335711097318</v>
+        <v>29.15169135392082</v>
       </c>
       <c r="E5">
-        <v>8.444396289964418</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="F5">
-        <v>14.20077877001543</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="G5">
-        <v>8.320522151952535</v>
+        <v>12.24210982109874</v>
       </c>
       <c r="H5">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I5">
-        <v>109.5281478432606</v>
+        <v>161.1504169944532</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>61.1714480044863</v>
+        <v>90.00247468974285</v>
       </c>
       <c r="C6">
-        <v>3.419843455603485</v>
+        <v>5.031667290812894</v>
       </c>
       <c r="D6">
-        <v>18.09045649262769</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="E6">
-        <v>18.63590905371458</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="F6">
-        <v>11.96694840169839</v>
+        <v>17.60715179667363</v>
       </c>
       <c r="G6">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H6">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I6">
-        <v>118.8537270370968</v>
+        <v>174.8712824102739</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>65.29607883466431</v>
+        <v>96.07110628189356</v>
       </c>
       <c r="C7">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D7">
-        <v>12.34745443147603</v>
+        <v>18.16699606113906</v>
       </c>
       <c r="E7">
-        <v>19.50946729060745</v>
+        <v>28.70457367470663</v>
       </c>
       <c r="F7">
-        <v>7.738626633098295</v>
+        <v>11.38595816184895</v>
       </c>
       <c r="G7">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H7">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I7">
-        <v>111.9326132862571</v>
+        <v>164.6881432905477</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>49.68593753891364</v>
+        <v>73.10366979467703</v>
       </c>
       <c r="C8">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D8">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E8">
-        <v>11.64744315857161</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="F8">
-        <v>5.744135232815229</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="G8">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H8">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I8">
-        <v>89.8387707077284</v>
+        <v>132.1811392495881</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>39.56472804024607</v>
+        <v>58.21218150316875</v>
       </c>
       <c r="C9">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D9">
-        <v>10.62455381313055</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="E9">
-        <v>22.13014200128606</v>
+        <v>32.56041192951798</v>
       </c>
       <c r="F9">
-        <v>2.632728648373647</v>
+        <v>3.873573395268199</v>
       </c>
       <c r="G9">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H9">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I9">
-        <v>81.65581972077845</v>
+        <v>120.1414399598744</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>32.77495113518378</v>
+        <v>48.22228026685909</v>
       </c>
       <c r="C10">
-        <v>0.8768829373342271</v>
+        <v>1.290171100208435</v>
       </c>
       <c r="D10">
-        <v>8.90165319478505</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="E10">
-        <v>11.06507100064303</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="F10">
-        <v>2.473169336351002</v>
+        <v>3.638811371312551</v>
       </c>
       <c r="G10">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H10">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I10">
-        <v>61.68860907278631</v>
+        <v>90.76338157487625</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>23.28830022577434</v>
+        <v>34.26442760491248</v>
       </c>
       <c r="C11">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D11">
-        <v>4.594401648921317</v>
+        <v>6.759812487865697</v>
       </c>
       <c r="E11">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F11">
-        <v>2.71250830438497</v>
+        <v>3.990954407246023</v>
       </c>
       <c r="G11">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H11">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I11">
-        <v>42.05672671408852</v>
+        <v>61.87869676291754</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>14.30929618777143</v>
+        <v>21.05348344661515</v>
       </c>
       <c r="C12">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D12">
-        <v>2.58435092751824</v>
+        <v>3.802394524424455</v>
       </c>
       <c r="E12">
-        <v>2.620674710678612</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="F12">
-        <v>1.51581346421513</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="G12">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H12">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I12">
-        <v>25.97716203264519</v>
+        <v>38.22059056347707</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>10.15293742813051</v>
+        <v>14.93817007298637</v>
       </c>
       <c r="C13">
-        <v>2.630648812002681</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="D13">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E13">
-        <v>1.747116473785742</v>
+        <v>2.570558836540892</v>
       </c>
       <c r="F13">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G13">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I13">
-        <v>22.51801777516267</v>
+        <v>33.13109940970534</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>6.694593116673553</v>
+        <v>9.849855891875391</v>
       </c>
       <c r="C14">
-        <v>2.806025399469526</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="D14">
-        <v>1.722900618345494</v>
+        <v>2.534929682949637</v>
       </c>
       <c r="E14">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F14">
-        <v>1.755152432249098</v>
+        <v>2.582382263512133</v>
       </c>
       <c r="G14">
-        <v>5.120321324278483</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="H14">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I14">
-        <v>19.12909118935236</v>
+        <v>28.14492057603742</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>5.10819664352816</v>
+        <v>7.515766817971267</v>
       </c>
       <c r="C15">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D15">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E15">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F15">
-        <v>1.356254152192485</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="G15">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H15">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I15">
-        <v>17.6857265764437</v>
+        <v>26.02127643683288</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>4.664005631047448</v>
+        <v>6.862221877278112</v>
       </c>
       <c r="C16">
-        <v>0.7891946436008044</v>
+        <v>1.161153990187591</v>
       </c>
       <c r="D16">
-        <v>3.73295133974857</v>
+        <v>5.492347646390878</v>
       </c>
       <c r="E16">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F16">
-        <v>1.276474496181162</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="G16">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H16">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I16">
-        <v>15.33296540212306</v>
+        <v>22.55962341159677</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,28 +870,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>9.391467121020709</v>
+        <v>13.81780731751239</v>
       </c>
       <c r="C17">
-        <v>1.139947818534495</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="D17">
-        <v>5.743002061151644</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="E17">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F17">
-        <v>2.951847272418938</v>
+        <v>4.343097443179496</v>
       </c>
       <c r="G17">
-        <v>5.760361489813294</v>
+        <v>8.475306799222206</v>
       </c>
       <c r="H17">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I17">
-        <v>26.32980418416197</v>
+        <v>38.73943828331687</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>20.6866100098159</v>
+        <v>30.43652152370971</v>
       </c>
       <c r="C18">
-        <v>0.7015063498673816</v>
+        <v>1.032136880166747</v>
       </c>
       <c r="D18">
-        <v>9.188803297842634</v>
+        <v>13.51962497573139</v>
       </c>
       <c r="E18">
-        <v>13.97693179028594</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="F18">
-        <v>6.781270760962425</v>
+        <v>9.977386018115057</v>
       </c>
       <c r="G18">
-        <v>10.56066273132437</v>
+        <v>15.5380624652407</v>
       </c>
       <c r="H18">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I18">
-        <v>62.36540512442867</v>
+        <v>91.75916182032</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,28 +928,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>36.42366302341819</v>
+        <v>53.59068513683859</v>
       </c>
       <c r="C19">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D19">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E19">
-        <v>28.82742181746474</v>
+        <v>42.41422080292472</v>
       </c>
       <c r="F19">
-        <v>11.48827046563046</v>
+        <v>16.90286572480669</v>
       </c>
       <c r="G19">
-        <v>18.88118488327691</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="H19">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I19">
-        <v>115.355432996889</v>
+        <v>169.7241895903035</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -957,28 +957,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>49.33693031482167</v>
+        <v>72.59017019841815</v>
       </c>
       <c r="C20">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D20">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E20">
-        <v>25.04200279092897</v>
+        <v>36.84467665708613</v>
       </c>
       <c r="F20">
-        <v>11.16915184158517</v>
+        <v>16.43334167689539</v>
       </c>
       <c r="G20">
-        <v>16.32102422113767</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="H20">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I20">
-        <v>119.6816395479025</v>
+        <v>176.0894025828362</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,28 +986,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>39.12053702776534</v>
+        <v>57.55863656247558</v>
       </c>
       <c r="C21">
-        <v>1.403012699734763</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="D21">
-        <v>7.465902679497139</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="E21">
-        <v>10.48269884271445</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="F21">
-        <v>8.775762161245488</v>
+        <v>12.91191131756067</v>
       </c>
       <c r="G21">
-        <v>11.84074306239399</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="H21">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I21">
-        <v>79.71481671912453</v>
+        <v>117.2856129486148</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1015,28 +1015,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>46.3227770158454</v>
+        <v>68.1554009580003</v>
       </c>
       <c r="C22">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D22">
-        <v>23.25915834766416</v>
+        <v>34.22155071982009</v>
       </c>
       <c r="E22">
-        <v>10.77388492167874</v>
+        <v>15.85177949200217</v>
       </c>
       <c r="F22">
-        <v>16.59416845035511</v>
+        <v>24.41525049138744</v>
       </c>
       <c r="G22">
-        <v>21.44134554541615</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="H22">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I22">
-        <v>123.401909213404</v>
+        <v>181.5630914905072</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1044,28 +1044,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>41.62704345533507</v>
+        <v>61.24649729924414</v>
       </c>
       <c r="C23">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D23">
-        <v>18.95190680180043</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="E23">
-        <v>6.697279816178675</v>
+        <v>9.853808873406754</v>
       </c>
       <c r="F23">
-        <v>17.95042260254759</v>
+        <v>26.41072769501044</v>
       </c>
       <c r="G23">
-        <v>16.32102422113767</v>
+        <v>24.01336926446291</v>
       </c>
       <c r="H23">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I23">
-        <v>106.8901684783541</v>
+        <v>157.2691181407029</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1073,28 +1073,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>43.68935887042411</v>
+        <v>64.28081309531944</v>
       </c>
       <c r="C24">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D24">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E24">
-        <v>6.406093737214384</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="F24">
-        <v>16.75372776237775</v>
+        <v>24.65001251534309</v>
       </c>
       <c r="G24">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H24">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I24">
-        <v>104.3171320635182</v>
+        <v>153.4833708295541</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1102,28 +1102,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>44.07009402397898</v>
+        <v>64.84099447305643</v>
       </c>
       <c r="C25">
-        <v>3.507531749336908</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="D25">
-        <v>17.8033063895701</v>
+        <v>26.19427339047958</v>
       </c>
       <c r="E25">
-        <v>6.114907658250096</v>
+        <v>8.996955927893124</v>
       </c>
       <c r="F25">
-        <v>13.24342289787956</v>
+        <v>19.48524798831882</v>
       </c>
       <c r="G25">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H25">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I25">
-        <v>99.27588662535001</v>
+        <v>146.0661103305018</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1131,28 +1131,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>45.33921120249527</v>
+        <v>66.70826573217971</v>
       </c>
       <c r="C26">
-        <v>3.770596630537177</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="D26">
-        <v>15.79325566816703</v>
+        <v>23.23685542703833</v>
       </c>
       <c r="E26">
-        <v>3.494232947571485</v>
+        <v>5.141117673081784</v>
       </c>
       <c r="F26">
-        <v>16.9132870744004</v>
+        <v>24.88477453929874</v>
       </c>
       <c r="G26">
-        <v>17.92112463497468</v>
+        <v>26.36762115313575</v>
       </c>
       <c r="H26">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I26">
-        <v>104.4840286496928</v>
+        <v>153.7289282957086</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1160,28 +1160,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>47.59189419436173</v>
+        <v>70.02267221712361</v>
       </c>
       <c r="C27">
-        <v>2.981401986936372</v>
+        <v>4.386581740708678</v>
       </c>
       <c r="D27">
-        <v>22.11055793543384</v>
+        <v>32.53159759785367</v>
       </c>
       <c r="E27">
-        <v>6.988465895142969</v>
+        <v>10.28223534616357</v>
       </c>
       <c r="F27">
-        <v>14.20077877001543</v>
+        <v>20.89382013205271</v>
       </c>
       <c r="G27">
-        <v>7.040441820882911</v>
+        <v>10.35870831016047</v>
       </c>
       <c r="H27">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I27">
-        <v>102.0093210328766</v>
+        <v>150.087853629131</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1189,28 +1189,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>46.06895358014212</v>
+        <v>67.7819467061756</v>
       </c>
       <c r="C28">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D28">
-        <v>21.82340783237625</v>
+        <v>32.10910931736205</v>
       </c>
       <c r="E28">
-        <v>6.406093737214384</v>
+        <v>9.425382400649941</v>
       </c>
       <c r="F28">
-        <v>13.40298220990221</v>
+        <v>19.72001001227447</v>
       </c>
       <c r="G28">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H28">
-        <v>2.504640983093422</v>
+        <v>3.685116080155988</v>
       </c>
       <c r="I28">
-        <v>109.1667733413996</v>
+        <v>160.6187212357574</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1218,28 +1218,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>50.66950335226377</v>
+        <v>74.55080502049761</v>
       </c>
       <c r="C29">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D29">
-        <v>21.24910762626109</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="E29">
-        <v>8.444396289964418</v>
+        <v>12.42436770994765</v>
       </c>
       <c r="F29">
-        <v>13.32320255389088</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="G29">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H29">
-        <v>3.913501536083472</v>
+        <v>5.757993875243733</v>
       </c>
       <c r="I29">
-        <v>110.1862268111876</v>
+        <v>162.1186585121358</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1247,28 +1247,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>63.48758685527854</v>
+        <v>93.41024473764281</v>
       </c>
       <c r="C30">
-        <v>1.9291424621353</v>
+        <v>2.838376420458556</v>
       </c>
       <c r="D30">
-        <v>13.49605484370637</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="E30">
-        <v>13.97693179028594</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="F30">
-        <v>11.56805012164178</v>
+        <v>17.02024673678451</v>
       </c>
       <c r="G30">
-        <v>6.720421738115507</v>
+        <v>9.887857932425902</v>
       </c>
       <c r="H30">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I30">
-        <v>113.2132086099269</v>
+        <v>166.5723025178712</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1276,28 +1276,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>66.05754914177407</v>
+        <v>97.19146903736753</v>
       </c>
       <c r="C31">
-        <v>2.542960518269258</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="D31">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E31">
-        <v>20.38302552750032</v>
+        <v>29.98985309297707</v>
       </c>
       <c r="F31">
-        <v>8.855541817256814</v>
+        <v>13.02929232953849</v>
       </c>
       <c r="G31">
-        <v>6.080381572580698</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="H31">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I31">
-        <v>121.4874749035519</v>
+        <v>178.7463553964881</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1305,28 +1305,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>52.25589982540921</v>
+        <v>76.88489409440172</v>
       </c>
       <c r="C32">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D32">
-        <v>14.35750515287911</v>
+        <v>21.1244140245803</v>
       </c>
       <c r="E32">
-        <v>13.68574571132164</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="F32">
-        <v>6.222813168883166</v>
+        <v>9.15571893427029</v>
       </c>
       <c r="G32">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="H32">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I32">
-        <v>94.57257982139613</v>
+        <v>139.1460640443666</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1334,28 +1334,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>43.7528147293499</v>
+        <v>64.37417665827562</v>
       </c>
       <c r="C33">
-        <v>2.630648812002681</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="D33">
-        <v>11.19885401924571</v>
+        <v>16.47704293917263</v>
       </c>
       <c r="E33">
-        <v>18.63590905371458</v>
+        <v>27.41929425643619</v>
       </c>
       <c r="F33">
-        <v>3.988982800566132</v>
+        <v>5.869050598891212</v>
       </c>
       <c r="G33">
-        <v>5.120321324278483</v>
+        <v>7.533606043753073</v>
       </c>
       <c r="H33">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I33">
-        <v>85.48407080060082</v>
+        <v>125.7740035521638</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,28 +1363,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>35.94774408147456</v>
+        <v>52.89045841466737</v>
       </c>
       <c r="C34">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D34">
-        <v>7.465902679497139</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="E34">
-        <v>9.026768447892996</v>
+        <v>13.28122065546128</v>
       </c>
       <c r="F34">
-        <v>2.552948992362325</v>
+        <v>3.756192383290375</v>
       </c>
       <c r="G34">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="H34">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I34">
-        <v>59.93345098380807</v>
+        <v>88.18099098853318</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,28 +1392,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>25.41407149978918</v>
+        <v>37.39210696394399</v>
       </c>
       <c r="C35">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D35">
-        <v>7.178752576439557</v>
+        <v>10.56220701229015</v>
       </c>
       <c r="E35">
-        <v>4.950163342392934</v>
+        <v>7.283250036865859</v>
       </c>
       <c r="F35">
-        <v>1.914711744271744</v>
+        <v>2.817144287467781</v>
       </c>
       <c r="G35">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H35">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I35">
-        <v>45.44057788124804</v>
+        <v>66.85740805652293</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,28 +1421,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>15.99087644930555</v>
+        <v>23.52761786495353</v>
       </c>
       <c r="C36">
-        <v>3.069090280669794</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="D36">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E36">
-        <v>2.620674710678612</v>
+        <v>3.855838254811339</v>
       </c>
       <c r="F36">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G36">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H36">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I36">
-        <v>29.18445639780621</v>
+        <v>42.9395311695878</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,28 +1450,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>12.1517969842937</v>
+        <v>17.87912230610557</v>
       </c>
       <c r="C37">
-        <v>3.682908336803754</v>
+        <v>5.418718620875426</v>
       </c>
       <c r="D37">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E37">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F37">
-        <v>1.356254152192485</v>
+        <v>1.995477203623012</v>
       </c>
       <c r="G37">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H37">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I37">
-        <v>25.05356589317033</v>
+        <v>36.86168962393199</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,28 +1479,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>6.821504834525186</v>
+        <v>10.03658301778772</v>
       </c>
       <c r="C38">
-        <v>2.542960518269258</v>
+        <v>3.74149619060446</v>
       </c>
       <c r="D38">
-        <v>2.297200824460659</v>
+        <v>3.379906243932849</v>
       </c>
       <c r="E38">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F38">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G38">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H38">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I38">
-        <v>17.35291240597087</v>
+        <v>25.53160192476031</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,28 +1508,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>4.568821842658726</v>
+        <v>6.722176532843865</v>
       </c>
       <c r="C39">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D39">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E39">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F39">
-        <v>1.51581346421513</v>
+        <v>2.23023922757866</v>
       </c>
       <c r="G39">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="H39">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I39">
-        <v>15.0198176800484</v>
+        <v>22.09888444187175</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,28 +1537,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>4.600549772121635</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="C40">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D40">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E40">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F40">
-        <v>1.675372776237776</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="G40">
-        <v>4.160261075976267</v>
+        <v>6.121054910549371</v>
       </c>
       <c r="H40">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I40">
-        <v>15.74604434881628</v>
+        <v>23.16739270033251</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,28 +1566,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>8.59826888444802</v>
+        <v>12.65076278056032</v>
       </c>
       <c r="C41">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D41">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E41">
-        <v>1.455930394821451</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="F41">
-        <v>4.068762456577455</v>
+        <v>5.986431610869034</v>
       </c>
       <c r="G41">
-        <v>6.400401655348105</v>
+        <v>9.417007554691338</v>
       </c>
       <c r="H41">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I41">
-        <v>25.66457612651217</v>
+        <v>37.76067820202629</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1595,28 +1595,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>22.33646234188712</v>
+        <v>32.86397416057</v>
       </c>
       <c r="C42">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D42">
-        <v>7.465902679497139</v>
+        <v>10.98469529278176</v>
       </c>
       <c r="E42">
-        <v>12.22981531650019</v>
+        <v>17.99391185578625</v>
       </c>
       <c r="F42">
-        <v>8.057745257143587</v>
+        <v>11.85548220976025</v>
       </c>
       <c r="G42">
-        <v>11.84074306239399</v>
+        <v>17.42146397617897</v>
       </c>
       <c r="H42">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I42">
-        <v>64.1475603800364</v>
+        <v>94.3812737453845</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1624,28 +1624,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>33.25087007712741</v>
+        <v>48.92250698903035</v>
       </c>
       <c r="C43">
-        <v>0.4384414686671135</v>
+        <v>0.6450855501042174</v>
       </c>
       <c r="D43">
-        <v>10.62455381313055</v>
+        <v>15.63206637818942</v>
       </c>
       <c r="E43">
-        <v>23.87725847507181</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="F43">
-        <v>9.812897689392685</v>
+        <v>14.43786447327238</v>
       </c>
       <c r="G43">
-        <v>23.68148612478798</v>
+        <v>34.84292795235795</v>
       </c>
       <c r="H43">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I43">
-        <v>103.0943682011676</v>
+        <v>151.6842999041009</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1653,28 +1653,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>53.23946563875936</v>
+        <v>78.33202932022226</v>
       </c>
       <c r="C44">
-        <v>1.490700993468186</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="D44">
-        <v>13.49605484370637</v>
+        <v>19.85694918310548</v>
       </c>
       <c r="E44">
-        <v>26.7891192647147</v>
+        <v>39.41523549362702</v>
       </c>
       <c r="F44">
-        <v>11.6478297776531</v>
+        <v>17.13762774876234</v>
       </c>
       <c r="G44">
-        <v>17.28108446943988</v>
+        <v>25.42592039766662</v>
       </c>
       <c r="H44">
-        <v>2.817721105980099</v>
+        <v>4.145755590175487</v>
       </c>
       <c r="I44">
-        <v>126.7619760937217</v>
+        <v>186.5068086039136</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1682,28 +1682,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>54.03266387533203</v>
+        <v>79.49907385717435</v>
       </c>
       <c r="C45">
-        <v>3.069090280669794</v>
+        <v>4.515598850729521</v>
       </c>
       <c r="D45">
-        <v>16.36755587428219</v>
+        <v>24.08183198802155</v>
       </c>
       <c r="E45">
-        <v>13.97693179028594</v>
+        <v>20.56447069232713</v>
       </c>
       <c r="F45">
-        <v>13.32320255389088</v>
+        <v>19.60262900029664</v>
       </c>
       <c r="G45">
-        <v>19.52122504881171</v>
+        <v>28.72187304180859</v>
       </c>
       <c r="H45">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I45">
-        <v>121.5429899148193</v>
+        <v>178.8280354704358</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1711,28 +1711,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>46.38623287477125</v>
+        <v>68.24876452095647</v>
       </c>
       <c r="C46">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D46">
-        <v>25.26920906906724</v>
+        <v>37.17896868326135</v>
       </c>
       <c r="E46">
-        <v>12.81218747442877</v>
+        <v>18.85076480129988</v>
       </c>
       <c r="F46">
-        <v>14.59967705007204</v>
+        <v>21.48072519194183</v>
       </c>
       <c r="G46">
-        <v>20.80130537988133</v>
+        <v>30.60527455274685</v>
       </c>
       <c r="H46">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I46">
-        <v>125.8561002013722</v>
+        <v>185.1739797314099</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1740,28 +1740,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>34.51998725564374</v>
+        <v>50.78977824815365</v>
       </c>
       <c r="C47">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D47">
-        <v>14.64465525593669</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="E47">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F47">
-        <v>12.92430427383427</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="G47">
-        <v>14.08088364176582</v>
+        <v>20.71741662032094</v>
       </c>
       <c r="H47">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I47">
-        <v>86.08028627778907</v>
+        <v>126.6512243822368</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1769,28 +1769,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>36.23329544664074</v>
+        <v>53.31059444797011</v>
       </c>
       <c r="C48">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D48">
-        <v>12.9217546375912</v>
+        <v>19.01197262212227</v>
       </c>
       <c r="E48">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F48">
-        <v>12.12650771372104</v>
+        <v>17.84191382062928</v>
       </c>
       <c r="G48">
-        <v>12.4807832279288</v>
+        <v>18.36316473164811</v>
       </c>
       <c r="H48">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I48">
-        <v>84.45549718370702</v>
+        <v>124.2606476657013</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1798,28 +1798,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>36.55057474126981</v>
+        <v>53.77741226275092</v>
       </c>
       <c r="C49">
-        <v>2.806025399469526</v>
+        <v>4.12854752066699</v>
       </c>
       <c r="D49">
-        <v>13.78320494676395</v>
+        <v>20.27943746359709</v>
       </c>
       <c r="E49">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F49">
-        <v>9.573558721358717</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="G49">
-        <v>11.52072297962659</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="H49">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I49">
-        <v>80.57121663994917</v>
+        <v>118.5456470774892</v>
       </c>
     </row>
   </sheetData>
